--- a/static/example.xlsx
+++ b/static/example.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Sides\dinner-tables-planner\tests\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Sides\dinner-tables-planner\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="96">
   <si>
     <t>Groom's family</t>
   </si>
@@ -300,6 +300,18 @@
   </si>
   <si>
     <t>Groom's cousin 2</t>
+  </si>
+  <si>
+    <t>Should Not Sit Together</t>
+  </si>
+  <si>
+    <t>Moriarty</t>
+  </si>
+  <si>
+    <t>Should Not Sit Together 2</t>
+  </si>
+  <si>
+    <t>The Joker</t>
   </si>
 </sst>
 </file>
@@ -707,10 +719,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9BAA516-7639-4578-BEAB-0EF98A54A9FE}">
-  <dimension ref="A1:H30"/>
+  <dimension ref="A1:J30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -723,9 +735,10 @@
     <col min="6" max="6" width="20.5546875" customWidth="1"/>
     <col min="7" max="7" width="12.33203125" customWidth="1"/>
     <col min="8" max="8" width="13.88671875" customWidth="1"/>
+    <col min="9" max="9" width="15.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -750,8 +763,14 @@
       <c r="H1" s="1" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
@@ -776,8 +795,14 @@
       <c r="H2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>2</v>
       </c>
@@ -802,8 +827,14 @@
       <c r="H3" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I3" t="s">
+        <v>93</v>
+      </c>
+      <c r="J3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>3</v>
       </c>
@@ -829,7 +860,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>4</v>
       </c>
@@ -855,7 +886,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>5</v>
       </c>
@@ -881,7 +912,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>6</v>
       </c>
@@ -904,7 +935,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>7</v>
       </c>
@@ -927,7 +958,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>90</v>
       </c>
@@ -947,7 +978,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>91</v>
       </c>
@@ -967,7 +998,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="6"/>
       <c r="B11" s="7"/>
       <c r="C11" s="6" t="s">
@@ -983,7 +1014,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="6"/>
       <c r="B12" s="7"/>
       <c r="C12" s="6" t="s">
@@ -999,7 +1030,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="6"/>
       <c r="B13" s="7"/>
       <c r="C13" s="6" t="s">
@@ -1012,7 +1043,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="6"/>
       <c r="B14" s="7"/>
       <c r="C14" s="6" t="s">
@@ -1025,7 +1056,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6" t="s">
@@ -1038,7 +1069,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="6"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6" t="s">
